--- a/election/spreadsheet/Book1.xlsx
+++ b/election/spreadsheet/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\s0py.github.io\election\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E826DB2-02F9-4A7F-B1FE-D90C152F22DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F861BCA-B0A2-4A6B-80A9-62B3BC618E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B54E1D09-66EC-469D-A3D5-4E60F92C5577}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:T534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,11 +718,11 @@
         <v>1.0731707317073171</v>
       </c>
       <c r="N2">
-        <f ca="1">SUM(K2:K666)</f>
+        <f ca="1">SUM(K2:K2000)</f>
         <v>18.948907159432462</v>
       </c>
       <c r="O2">
-        <f ca="1">SUM(L2:L666)</f>
+        <f ca="1">SUM(L2:L2000)</f>
         <v>22.700235371056628</v>
       </c>
       <c r="Q2">
@@ -33021,7 +33021,7 @@
   <dimension ref="A1:Y272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:I272"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
